--- a/plots/countries/plot data/Slovenia.xlsx
+++ b/plots/countries/plot data/Slovenia.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>1.96006878584782</v>
+        <v>1.98330471801446</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>1.93761052557608</v>
+        <v>1.93916105677608</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0950793363413</v>
+        <v>3.0962608371413</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>6.3742561640261</v>
+        <v>6.3743051816261</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.38616317757785</v>
+        <v>-4.36200801843556</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>1.83479230552922</v>
+        <v>1.85529337202421</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>2.16987610286097</v>
+        <v>2.17162233646097</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>3.07626826364444</v>
+        <v>3.07760425084444</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>5.4299906207456</v>
+        <v>5.4300760703456</v>
       </c>
     </row>
     <row r="16">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.73900282272368</v>
+        <v>-4.7148421160501</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9547811409609</v>
+        <v>1.97070984946186</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>1.94919155893555</v>
+        <v>1.95154867253556</v>
       </c>
     </row>
     <row r="22">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>2.58567424698911</v>
+        <v>2.58663575738911</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>5.96313680438857</v>
+        <v>5.96317603318858</v>
       </c>
     </row>
     <row r="25">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.8550369215266</v>
+        <v>-4.83087066732172</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>1.84639679405556</v>
+        <v>1.85978202856135</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>2.26774611514138</v>
+        <v>2.26993071034138</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>2.51766998620219</v>
+        <v>2.51846530780219</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>5.75326029274751</v>
+        <v>5.75330813274751</v>
       </c>
     </row>
     <row r="34">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.85508403664483</v>
+        <v>-4.83091223490865</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>1.85942950368064</v>
+        <v>1.86905315785291</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>2.16997701195175</v>
+        <v>2.17212031755175</v>
       </c>
     </row>
     <row r="40">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>2.68100091298521</v>
+        <v>2.68184797538521</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>5.53527086237865</v>
+        <v>5.53531627357865</v>
       </c>
     </row>
     <row r="43">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-5.04141964714651</v>
+        <v>-5.01724229787905</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>1.85649458275738</v>
+        <v>1.86608307988716</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>2.3549568374756</v>
+        <v>2.35677122467559</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>2.63049015474815</v>
+        <v>2.63136768754815</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>5.72417848593171</v>
+        <v>5.72423449553171</v>
       </c>
     </row>
     <row r="52">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-5.12658663609049</v>
+        <v>-5.10240373929173</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>1.7834345951198</v>
+        <v>1.78989756811921</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>2.99307395776414</v>
+        <v>2.99500168896414</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>2.5213697976557</v>
+        <v>2.5226276216557</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>5.32683624976597</v>
+        <v>5.32685251536597</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>4.53008563772929</v>
+        <v>4.53008563772928</v>
       </c>
     </row>
     <row r="62">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-5.70254803976888</v>
+        <v>-5.6783700191143</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>1.73260792438754</v>
+        <v>1.73739885168461</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>3.05914134314558</v>
+        <v>3.06379246682557</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>2.30039965786484</v>
+        <v>2.30121500073169</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>5.74674418713382</v>
+        <v>5.74675988097382</v>
       </c>
     </row>
     <row r="70">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>1.09830776037377</v>
+        <v>1.09725026037377</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.91646612329426</v>
+        <v>-5.89229297878386</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>1.7709634970044</v>
+        <v>1.77465386929227</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>3.18294401338799</v>
+        <v>3.18767235370799</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>2.28147925824173</v>
+        <v>2.28226291872643</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>5.98606600553199</v>
+        <v>5.98608096257199</v>
       </c>
     </row>
     <row r="79">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>1.07541292524302</v>
+        <v>1.07538825024302</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-6.06262473260507</v>
+        <v>-6.03845646423885</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>1.78415743231644</v>
+        <v>1.78775079570646</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>3.42151710865247</v>
+        <v>3.42701017369247</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>2.29636249542237</v>
+        <v>2.29702178405636</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>5.28745014230886</v>
+        <v>5.28746561510886</v>
       </c>
     </row>
     <row r="88">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>1.09949282833828</v>
+        <v>1.09946815333828</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.1028925505807</v>
+        <v>-6.07872915835866</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>1.8711572186603</v>
+        <v>1.87286884107172</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>2.79639672745531</v>
+        <v>2.80134168697531</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>2.29343872881248</v>
+        <v>2.29438669569258</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>5.59295776023007</v>
+        <v>5.59297205415007</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>3.67611708237767</v>
+        <v>3.67612149609413</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>1.14132502663572</v>
+        <v>1.14130035163572</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.2046600572971</v>
+        <v>-6.18050154121924</v>
       </c>
     </row>
     <row r="100">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>1.84522662528845</v>
+        <v>1.84130753216668</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>3.23030137303142</v>
+        <v>3.23580843727142</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>2.21270851909748</v>
+        <v>2.21362450885741</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>6.31054324161568</v>
+        <v>6.31054611513568</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>3.83717279379282</v>
+        <v>3.83719081771842</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>1.19712930084307</v>
+        <v>1.19710462584307</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-6.25537108747724</v>
+        <v>-6.23195569421024</v>
       </c>
     </row>
     <row r="109">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>1.90085266073989</v>
+        <v>1.89938710215326</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>3.04903715823994</v>
+        <v>3.05444305983994</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>2.24452762678363</v>
+        <v>2.24529957214369</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>6.56320256792116</v>
+        <v>6.56324294456116</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>3.9041748344284</v>
+        <v>3.9042255848419</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>1.2040800544709</v>
+        <v>1.2040553794709</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.37439558394602</v>
+        <v>-7.35172331348986</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>1.80851129099738</v>
+        <v>1.80363045247787</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>2.99343398877175</v>
+        <v>2.99858738901175</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>2.17492920700854</v>
+        <v>2.1762688567687</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>6.28998732502724</v>
+        <v>6.29002770166724</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>3.95367376678771</v>
+        <v>3.95375958154047</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>1.27163936250838</v>
+        <v>1.27161468750838</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.0521920737012</v>
+        <v>-7.03026033607376</v>
       </c>
     </row>
     <row r="127">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>1.76161814161975</v>
+        <v>1.75596658446606</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>2.93107278946</v>
+        <v>2.93571801874</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>2.32543809066964</v>
+        <v>2.32686873522964</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>6.42223898813851</v>
+        <v>6.42228614333851</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>4.13214439146769</v>
+        <v>4.13229660230263</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>1.32205530741691</v>
+        <v>1.32203063241691</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.1959848163831</v>
+        <v>-7.17609652794062</v>
       </c>
     </row>
     <row r="136">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>1.76914313341515</v>
+        <v>1.76295881675265</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>2.71954802499267</v>
+        <v>2.72416446381417</v>
       </c>
     </row>
     <row r="139">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>2.46413221143458</v>
+        <v>2.46583980999692</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>6.44928389773346</v>
+        <v>6.44929972197555</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>4.40134589547523</v>
+        <v>4.4015274751862</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>1.3948681971892</v>
+        <v>1.3948435221892</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-7.23565468788109</v>
+        <v>-7.21659657729113</v>
       </c>
     </row>
     <row r="145">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>1.76771537037996</v>
+        <v>1.75898671699549</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>2.46354214439933</v>
+        <v>2.46745669605223</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>2.59994864496337</v>
+        <v>2.60210855913891</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>6.50565175090077</v>
+        <v>6.50567233517745</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>4.63735403160829</v>
+        <v>4.6375660088674</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>1.43909638061183</v>
+        <v>1.43907170561183</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.21969822590042</v>
+        <v>-7.20142181632485</v>
       </c>
     </row>
     <row r="154">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>1.82511390156919</v>
+        <v>1.81051173838816</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>2.04605071062112</v>
+        <v>2.05078008114191</v>
       </c>
     </row>
     <row r="157">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>2.3628349811583</v>
+        <v>2.36420219132201</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>6.72689863713641</v>
+        <v>6.7269075529062</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>5.23995278190562</v>
+        <v>5.24022950461332</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>1.44904678323308</v>
+        <v>1.44902210823308</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-7.56557736040917</v>
+        <v>-7.54951187474525</v>
       </c>
     </row>
     <row r="163">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>1.74847064232605</v>
+        <v>1.73308515543234</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>2.40258134647365</v>
+        <v>2.40716252814933</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>2.33485686114773</v>
+        <v>2.33643191616333</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>6.50017842290333</v>
+        <v>6.50018246615208</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>6.15908530009338</v>
+        <v>6.1594255378419</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>1.32253887316543</v>
+        <v>1.32251419816543</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-7.31264422198264</v>
+        <v>-7.29667957251546</v>
       </c>
     </row>
     <row r="172">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>1.75822983964641</v>
+        <v>1.74196451858497</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>2.28680407854385</v>
+        <v>2.29091465756594</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>1.95724262621367</v>
+        <v>1.95845374535092</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>6.21670316469143</v>
+        <v>6.21670519938626</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>5.15876652749944</v>
+        <v>5.15903800676314</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>0.985909973226165</v>
+        <v>0.985885298226165</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.24554602262994</v>
+        <v>-7.22972650031458</v>
       </c>
     </row>
     <row r="181">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>1.72644389060915</v>
+        <v>1.70510467274714</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>2.31236040523672</v>
+        <v>2.3166770164943</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>1.93230414186712</v>
+        <v>1.93378228383513</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>6.34673089455692</v>
+        <v>6.34673724511041</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>5.29922112654441</v>
+        <v>5.29952024936671</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.98672147595401</v>
+        <v>0.98669680095401</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-7.17184867902982</v>
+        <v>-7.15616150163224</v>
       </c>
     </row>
     <row r="190">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>1.70842639965658</v>
+        <v>1.68807861719693</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>2.05454711883538</v>
+        <v>2.05763842984062</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>1.73201861936165</v>
+        <v>1.73372249612636</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>6.36605344816898</v>
+        <v>6.36606088228366</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>5.64947854816455</v>
+        <v>5.64979393887078</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.998863968973247</v>
+        <v>0.997664293973247</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-7.0709606867583</v>
+        <v>-7.05664562620283</v>
       </c>
     </row>
     <row r="199">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>1.69262086981855</v>
+        <v>1.67126868101352</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>1.80273001141961</v>
+        <v>1.80577583184963</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>1.662535124669</v>
+        <v>1.66418240992707</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>6.05881807131121</v>
+        <v>6.05882510427939</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>5.66809462407233</v>
+        <v>5.6684059115337</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>1.02395028585115</v>
+        <v>1.02392561084627</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-6.99575439328345</v>
+        <v>-6.98124721564083</v>
       </c>
     </row>
     <row r="208">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>1.6789155962731</v>
+        <v>1.65547096545528</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>1.72071738394872</v>
+        <v>1.72383700694414</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>1.65558604208081</v>
+        <v>1.65933616389527</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>5.77878136425101</v>
+        <v>5.77951239105753</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>5.36730432982734</v>
+        <v>5.36758131575034</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>1.09109549380048</v>
+        <v>1.0910708187824</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-5.3087013237015</v>
+        <v>-5.28723258807003</v>
       </c>
     </row>
     <row r="217">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>1.72145228344752</v>
+        <v>1.69686019947712</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>1.42330170951627</v>
+        <v>1.42581118244225</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>1.66239421639694</v>
+        <v>1.66567071873284</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>4.45225535893107</v>
+        <v>4.45262716391126</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>5.38331201974678</v>
+        <v>5.38356796918379</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>1.12830434572317</v>
+        <v>1.1282796706972</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>0.464101456782761</v>
+        <v>0.484909271121577</v>
       </c>
     </row>
     <row r="226">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>1.76361010190794</v>
+        <v>1.73550971508026</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>1.53718695616115</v>
+        <v>1.54165044443345</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>1.60469141699807</v>
+        <v>1.6113740637309</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>4.56579020248738</v>
+        <v>4.56688469023818</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>5.35374795945474</v>
+        <v>5.35392713780352</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>1.10879809053536</v>
+        <v>1.10830341588404</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.559579011188708</v>
+        <v>0.580102443056157</v>
       </c>
     </row>
     <row r="235">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>1.78243483592069</v>
+        <v>1.75174529886707</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>1.60592160868329</v>
+        <v>1.61413287251145</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>1.61772391891404</v>
+        <v>1.62221743671173</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>4.93479938778867</v>
+        <v>4.93546465342593</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>5.72694514129956</v>
+        <v>5.72698778723991</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>1.11473938341025</v>
+        <v>1.11471471009344</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>0.70731580791942</v>
+        <v>0.727976405296636</v>
       </c>
     </row>
     <row r="244">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>1.74911798372016</v>
+        <v>1.71337666183739</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>1.47232612034922</v>
+        <v>1.48531064850467</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>1.69319397020048</v>
+        <v>1.7043458756702</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>4.92088561327452</v>
+        <v>4.92334753256425</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>5.85645860139929</v>
+        <v>5.8563575724259</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>1.17326376875187</v>
+        <v>1.17323910112169</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>0.703078739733268</v>
+        <v>0.723712329638915</v>
       </c>
     </row>
     <row r="253">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>1.74892929817395</v>
+        <v>1.70842147413478</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>1.3665739613526</v>
+        <v>1.37898591294525</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>1.79005075240842</v>
+        <v>1.82614653765884</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>4.80599670002457</v>
+        <v>4.80795337249383</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>5.83517602016648</v>
+        <v>5.83482292556645</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>1.19624994566235</v>
+        <v>1.19622528049389</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>0.800908750557877</v>
+        <v>0.821770791148681</v>
       </c>
     </row>
     <row r="262">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>1.76862741968627</v>
+        <v>1.72360744649942</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>1.35307407366581</v>
+        <v>1.36538087899247</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>1.74724468913776</v>
+        <v>1.75379741375526</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>4.57959922019824</v>
+        <v>4.58120903086487</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>5.62518568894176</v>
+        <v>5.62464201265404</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>1.20618933526537</v>
+        <v>1.21104198859774</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.644231907366395</v>
+        <v>-4.52823316671151</v>
       </c>
     </row>
     <row r="271">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>1.77336177184821</v>
+        <v>1.72716761495458</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>1.35819418416527</v>
+        <v>1.36631159377807</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>1.70264938585201</v>
+        <v>1.71252908051189</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>4.5147666751166</v>
+        <v>4.51721862705394</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>4.57571355752909</v>
+        <v>4.57511217706653</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>1.15364766774403</v>
+        <v>1.15371402927756</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.40037950716654</v>
+        <v>-4.33693383406392</v>
       </c>
     </row>
     <row r="280">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>1.77373392523829</v>
+        <v>1.72792801383663</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>1.25844927050152</v>
+        <v>1.26851956691146</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>1.73255503505843</v>
+        <v>1.74208578078835</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>4.1983720803042</v>
+        <v>4.20071818112365</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>5.20549254630852</v>
+        <v>5.20462857289211</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>1.12744735660682</v>
+        <v>1.12790817371471</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.324326425075752</v>
+        <v>-4.31868516008112</v>
       </c>
     </row>
     <row r="289">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>1.70632482702098</v>
+        <v>1.66029299074353</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>1.26614251229655</v>
+        <v>1.2810386800792</v>
       </c>
     </row>
     <row r="292">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>1.60536723597901</v>
+        <v>1.62039109700264</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>3.41558018416982</v>
+        <v>3.419505307694</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>5.794232273171</v>
+        <v>5.79320304518177</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>1.13891188439396</v>
+        <v>1.09530570067971</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.172723697896737</v>
+        <v>-4.2185954587348</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.380216066952584</v>
+        <v>0.379625461501728</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.63197919781512</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.2657167160601</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.334351114128233</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1.51658986849022</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3.30975902522112</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>5.36365058690353</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.00561078867126</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-4.29112494332875</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.37677373802688</v>
       </c>
     </row>
   </sheetData>
